--- a/src/main/resources/template/excel/export/DOSheet2.xlsx
+++ b/src/main/resources/template/excel/export/DOSheet2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$8</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>深圳友门商贸有限公司配送出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否赠品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.isGiftDesc}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +194,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +233,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -269,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -285,6 +303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -592,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,11 +625,11 @@
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -621,8 +640,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -639,20 +659,22 @@
         <v>22</v>
       </c>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,10 +697,13 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -700,11 +725,14 @@
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
         <v>13</v>
       </c>
@@ -712,7 +740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -729,14 +757,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/DOSheet2.xlsx
+++ b/src/main/resources/template/excel/export/DOSheet2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H9")</t>
+          <t>jx:area(lastCell="I9")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="H5")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I5")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,22 +171,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${amount}</t>
+  </si>
+  <si>
+    <t>深圳友门商贸有限公司配送出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.goodsExpiryDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${amount}</t>
-  </si>
-  <si>
-    <t>深圳友门商贸有限公司配送出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否赠品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.isGiftDesc}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,10 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +222,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -287,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -303,7 +285,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,13 +606,13 @@
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -640,9 +621,8 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -659,22 +639,20 @@
         <v>22</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -697,13 +675,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -725,22 +700,19 @@
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -757,14 +729,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/DOSheet2.xlsx
+++ b/src/main/resources/template/excel/export/DOSheet2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$8</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I9")</t>
+          <t>jx:area(lastCell="J9")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="I5")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,49 +136,57 @@
     <t>${targetBranchName}</t>
   </si>
   <si>
+    <t>日期：${createTime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuName}</t>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
+    <t>${obj.dealNum}</t>
+  </si>
+  <si>
+    <t>${obj.price}</t>
+  </si>
+  <si>
+    <t>${obj.amount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.goodsCreateDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${amount}</t>
+  </si>
+  <si>
+    <t>深圳友门商贸有限公司配送出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.goodsExpiryDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注：${targetBranchRemark}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：${createTime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${formNo}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.skuName}</t>
-  </si>
-  <si>
-    <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.dealNum}</t>
-  </si>
-  <si>
-    <t>${obj.price}</t>
-  </si>
-  <si>
-    <t>${obj.amount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.goodsCreateDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${amount}</t>
-  </si>
-  <si>
-    <t>深圳友门商贸有限公司配送出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.goodsExpiryDate}</t>
+    <t>是否赠品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.isGiftDesc}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,11 +600,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -606,13 +612,13 @@
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -621,8 +627,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -630,17 +637,18 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -648,11 +656,12 @@
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,44 +684,50 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -729,14 +744,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
